--- a/datas/shared/ProductionTechLevelUp.xlsx
+++ b/datas/shared/ProductionTechLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="560" windowWidth="27520" windowHeight="14540" tabRatio="883" firstSheet="2" activeTab="17"/>
+    <workbookView xWindow="3780" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
@@ -242,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -283,8 +283,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="88">
+  <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -377,8 +390,158 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,8 +552,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="88">
+  <cellStyles count="238">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -437,6 +603,81 @@
     <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -476,6 +717,81 @@
     <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -928,7 +1244,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -966,22 +1282,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>660</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -989,22 +1305,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1740</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -1012,22 +1328,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4560</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -1035,22 +1351,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>8460</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -1058,22 +1374,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>13920</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -1081,22 +1397,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>21000</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -1104,22 +1420,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>39840</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -1127,22 +1443,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>54880</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -1150,22 +1466,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>72320</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -1173,22 +1489,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>93600</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -1196,22 +1512,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>118400</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -1219,22 +1535,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>183700</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -1242,22 +1558,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>225600</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -1265,22 +1581,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>271700</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -1288,22 +1604,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>384000</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>79200</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1639,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1361,22 +1677,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>687</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1384,22 +1700,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1810</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -1407,22 +1723,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4743</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -1430,22 +1746,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>8799</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -1453,22 +1769,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>14477</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -1476,22 +1792,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>21840</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>15576</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -1499,22 +1815,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>41434</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>23064</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -1522,22 +1838,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>57076</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>30552</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -1545,22 +1861,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>75213</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>38040</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -1568,22 +1884,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>97344</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>45528</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -1591,22 +1907,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>123136</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>53016</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -1614,22 +1930,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>191048</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>60504</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -1637,22 +1953,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>234624</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>67992</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -1660,22 +1976,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>282568</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>75480</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -1683,22 +1999,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>399360</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>82968</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +2034,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1756,22 +2072,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>753</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1779,22 +2095,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1984</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -1802,22 +2118,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5199</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -1825,22 +2141,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>9645</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>5304</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -1848,22 +2164,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>15869</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>9408</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -1871,22 +2187,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>23940</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>17616</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -1894,22 +2210,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>45418</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>25824</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -1917,22 +2233,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>62564</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>34032</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -1940,22 +2256,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>82445</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>42240</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -1963,22 +2279,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>106704</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>50448</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -1986,22 +2302,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>134976</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>58656</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2009,22 +2325,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>209418</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>66864</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2032,22 +2348,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>257184</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>1920</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>75072</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2055,22 +2371,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>309738</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2160</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>83280</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2078,22 +2394,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>437760</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>2400</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>91488</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2429,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2151,22 +2467,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>792</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -2174,22 +2490,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2088</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2197,22 +2513,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5472</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -2220,22 +2536,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>10152</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2243,22 +2559,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>16704</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>10240</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -2266,22 +2582,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>25200</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>18880</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -2289,22 +2605,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>47808</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>27520</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -2312,22 +2628,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>65856</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>36160</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -2335,22 +2651,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>86784</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -2358,22 +2674,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>112320</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>53440</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -2381,22 +2697,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>142080</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>62080</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2404,22 +2720,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>220440</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>70720</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2427,22 +2743,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>270720</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>1920</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>79360</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2450,22 +2766,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>326040</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2160</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>88000</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2473,22 +2789,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>460800</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2400</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>96640</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2824,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2546,344 +2862,344 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>766</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>200</v>
+      <c r="B3" s="4">
+        <v>2019</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>300</v>
+      <c r="B4" s="4">
+        <v>5290</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>400</v>
+      <c r="B5" s="4">
+        <v>9814</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>500</v>
+      <c r="B6" s="4">
+        <v>16148</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>9352</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>600</v>
+      <c r="B7" s="4">
+        <v>24360</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>17704</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>700</v>
+      <c r="B8" s="4">
+        <v>46215</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>26056</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>800</v>
+      <c r="B9" s="4">
+        <v>63661</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>34408</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>900</v>
+      <c r="B10" s="4">
+        <v>83892</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>42760</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>1000</v>
+      <c r="B11" s="4">
+        <v>108576</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>51112</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>1100</v>
+      <c r="B12" s="4">
+        <v>137344</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>59464</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>1200</v>
+      <c r="B13" s="4">
+        <v>213092</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>67816</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>1300</v>
+      <c r="B14" s="4">
+        <v>261696</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>76168</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>1400</v>
+      <c r="B15" s="4">
+        <v>315172</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>84520</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>1500</v>
+      <c r="B16" s="4">
+        <v>445440</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>92872</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +3219,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2941,22 +3257,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>740</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -2964,22 +3280,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1949</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2987,22 +3303,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5108</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -3010,22 +3326,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>9476</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -3033,22 +3349,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>15591</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -3056,22 +3372,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>23521</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>17329</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -3079,22 +3395,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>25393</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -3102,22 +3418,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>61466</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>33457</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -3125,22 +3441,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>80999</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>41521</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -3148,22 +3464,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>104833</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>49585</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -3171,22 +3487,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>132608</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>57649</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -3194,22 +3510,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>205745</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>65713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -3217,22 +3533,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>252673</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>73776</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -3240,22 +3556,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>304304</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>81841</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -3263,22 +3579,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>430081</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>89905</v>
       </c>
     </row>
   </sheetData>
@@ -3298,7 +3614,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3336,344 +3652,344 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>594</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>200</v>
+      <c r="B3" s="4">
+        <v>1566</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>300</v>
+      <c r="B4" s="4">
+        <v>4104</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>400</v>
+      <c r="B5" s="4">
+        <v>7614</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>500</v>
+      <c r="B6" s="4">
+        <v>12528</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>600</v>
+      <c r="B7" s="4">
+        <v>18900</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>14160</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>700</v>
+      <c r="B8" s="4">
+        <v>35856</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>20640</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>800</v>
+      <c r="B9" s="4">
+        <v>49392</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>27120</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>900</v>
+      <c r="B10" s="4">
+        <v>65088</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>1000</v>
+      <c r="B11" s="4">
+        <v>84240</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>40080</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>1100</v>
+      <c r="B12" s="4">
+        <v>106560</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>46560</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>1200</v>
+      <c r="B13" s="4">
+        <v>165330</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>53040</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>1300</v>
+      <c r="B14" s="4">
+        <v>203040</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>59520</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>1400</v>
+      <c r="B15" s="4">
+        <v>244530</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>1500</v>
+      <c r="B16" s="4">
+        <v>345600</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>72480</v>
       </c>
     </row>
   </sheetData>
@@ -3693,7 +4009,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3731,22 +4047,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>608</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -3754,22 +4070,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1601</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -3777,22 +4093,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4196</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -3800,22 +4116,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>7784</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -3823,22 +4139,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>12807</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>7424</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -3846,22 +4162,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>19320</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>14048</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -3869,22 +4185,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>36653</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>20672</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -3892,22 +4208,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>50490</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>27296</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -3915,22 +4231,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>66535</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>33920</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -3938,22 +4254,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>86112</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>40544</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -3961,22 +4277,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>108928</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>47168</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -3984,22 +4300,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>169004</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>53792</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4007,22 +4323,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>207552</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>60416</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -4030,22 +4346,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>249964</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>67040</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4053,22 +4369,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>353280</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>73664</v>
       </c>
     </row>
   </sheetData>
@@ -4088,7 +4404,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4126,22 +4442,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>608</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -4149,22 +4465,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1601</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -4172,22 +4488,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4196</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -4195,22 +4511,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>7784</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -4218,22 +4534,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>12807</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>7424</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -4241,22 +4557,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>19320</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>14048</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -4264,22 +4580,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>36653</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>20672</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -4287,22 +4603,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>50490</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>27296</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -4310,22 +4626,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>66535</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>33920</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -4333,22 +4649,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>86112</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>40544</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -4356,22 +4672,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>108928</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>47168</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -4379,22 +4695,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>169004</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>53792</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4402,22 +4718,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>207552</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>60416</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -4425,22 +4741,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>249964</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>67040</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4448,22 +4764,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>353280</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>73664</v>
       </c>
     </row>
   </sheetData>
@@ -4482,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4521,22 +4837,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>832</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -4544,22 +4860,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2193</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -4567,22 +4883,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5746</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -4590,22 +4906,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>10660</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>6536</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -4613,22 +4929,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>17540</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>11072</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -4636,22 +4952,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>26460</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>20144</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -4659,22 +4975,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>50199</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>29216</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -4682,22 +4998,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>69149</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>38288</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -4705,22 +5021,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>91124</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>47360</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -4728,22 +5044,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>117936</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>56432</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -4751,22 +5067,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>149184</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>65504</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -4774,22 +5090,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>231462</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>74576</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4797,22 +5113,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>284256</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>1920</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>83648</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -4820,22 +5136,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>342342</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2160</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>92720</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4843,22 +5159,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>483840</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2400</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>101792</v>
       </c>
     </row>
   </sheetData>
@@ -4916,22 +5232,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>542</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -4939,22 +5255,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1427</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>984</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -4962,22 +5278,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>3740</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -4985,22 +5301,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>6938</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -5008,22 +5324,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>11415</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>5904</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -5031,22 +5347,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>17220</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>11808</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -5054,22 +5370,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>32669</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>17712</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -5077,22 +5393,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>45002</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>23616</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -5100,22 +5416,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>59303</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>29520</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -5123,22 +5439,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>76752</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>35424</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -5146,22 +5462,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>97088</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>41328</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -5169,22 +5485,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>150634</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>47232</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -5192,22 +5508,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>184992</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>53136</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -5215,22 +5531,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>222794</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>59040</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -5238,22 +5554,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>314880</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>64944</v>
       </c>
     </row>
   </sheetData>
@@ -5272,8 +5588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5311,22 +5627,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>528</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -5334,22 +5650,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1392</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -5357,22 +5673,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>3648</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -5380,22 +5696,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>6768</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -5403,22 +5719,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>11136</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -5426,22 +5742,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>16800</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -5449,22 +5765,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>31872</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -5472,22 +5788,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>43904</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>23040</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -5495,22 +5811,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>57856</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -5518,22 +5834,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>74880</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>34560</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -5541,22 +5857,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>94720</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>40320</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -5564,22 +5880,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>146960</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>46080</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -5587,22 +5903,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>180480</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>51840</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -5610,22 +5926,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>217360</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -5633,22 +5949,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>307200</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>63360</v>
       </c>
     </row>
   </sheetData>
@@ -5668,7 +5984,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="F2" sqref="F2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5706,22 +6022,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>627</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -5729,22 +6045,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1653</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -5752,22 +6068,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4332</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -5775,22 +6091,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>8037</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -5798,22 +6114,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>13224</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -5821,22 +6137,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>19950</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>13980</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -5844,22 +6160,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>37848</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>20820</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -5867,22 +6183,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>52136</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>27660</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -5890,22 +6206,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>68704</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>34500</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -5913,22 +6229,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>88920</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>41340</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -5936,22 +6252,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>112480</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>48180</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -5959,22 +6275,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>174515</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>55020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -5982,22 +6298,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>214320</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>61860</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -6005,22 +6321,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>258115</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>68700</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -6028,22 +6344,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>364800</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>75540</v>
       </c>
     </row>
   </sheetData>
@@ -6101,22 +6417,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>555</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -6124,22 +6440,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1462</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -6147,22 +6463,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>3831</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -6170,22 +6486,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>7107</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -6193,22 +6509,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>11693</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -6216,22 +6532,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>17640</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>12096</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -6239,22 +6555,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>33466</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>18144</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -6262,22 +6578,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>46100</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>24192</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -6285,22 +6601,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>60749</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -6308,22 +6624,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>78624</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>36288</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -6331,22 +6647,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>99456</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>42336</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -6354,22 +6670,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>154308</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>48384</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -6377,22 +6693,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>189504</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>54432</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -6400,22 +6716,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>228228</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>60480</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -6423,22 +6739,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>322560</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>66528</v>
       </c>
     </row>
   </sheetData>
@@ -6458,7 +6774,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6496,22 +6812,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>568</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -6519,22 +6835,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1497</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -6542,22 +6858,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>3922</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -6565,22 +6881,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>7276</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -6588,22 +6904,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>11972</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -6611,22 +6927,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>18060</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -6634,22 +6950,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>34263</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -6657,22 +6973,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>47197</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -6680,22 +6996,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>62196</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>30960</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -6703,22 +7019,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>80496</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>37152</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -6726,22 +7042,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>101824</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>43344</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -6749,22 +7065,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>157982</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>49536</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -6772,22 +7088,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>194016</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>55728</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -6795,22 +7111,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>233662</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>61920</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -6818,22 +7134,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>330240</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>68112</v>
       </c>
     </row>
   </sheetData>
@@ -6891,22 +7207,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>759</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -6914,22 +7230,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2001</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -6937,22 +7253,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5244</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -6960,22 +7276,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>9729</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -6983,22 +7299,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>16008</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>8880</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -7006,22 +7322,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>24150</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -7029,22 +7345,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>45816</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>25440</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -7052,22 +7368,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>63112</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>33720</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -7075,22 +7391,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>83168</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -7098,22 +7414,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>107640</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>50280</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -7121,22 +7437,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>136160</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>58560</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -7144,22 +7460,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>211255</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>66840</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -7167,22 +7483,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>259440</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>75120</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -7190,22 +7506,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>312455</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>83400</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -7213,22 +7529,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>441600</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>91680</v>
       </c>
     </row>
   </sheetData>
@@ -7286,22 +7602,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>693</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -7309,22 +7625,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1827</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -7332,22 +7648,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4788</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -7355,22 +7671,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>8883</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -7378,22 +7694,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>14616</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -7401,22 +7717,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>22050</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>15920</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -7424,22 +7740,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>41832</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>23480</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -7447,22 +7763,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>57624</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>31040</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -7470,22 +7786,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>75936</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>38600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -7493,22 +7809,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>98280</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>46160</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -7516,22 +7832,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>124320</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>53720</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -7539,22 +7855,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>192885</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>61280</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -7562,22 +7878,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>236880</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>68840</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -7585,22 +7901,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>285285</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>76400</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -7608,22 +7924,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>403200</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>83960</v>
       </c>
     </row>
   </sheetData>
@@ -7643,7 +7959,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7681,22 +7997,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>561</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -7704,22 +8020,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1479</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -7727,22 +8043,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>3876</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -7750,22 +8066,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>7191</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -7773,22 +8089,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>11832</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -7796,22 +8112,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>17850</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>12640</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -7819,22 +8135,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>33864</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>18760</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -7842,22 +8158,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>46648</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>24880</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -7865,22 +8181,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>61472</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -7888,22 +8204,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>79560</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>37120</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -7911,22 +8227,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>100640</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -7934,22 +8250,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>156145</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>49360</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -7957,22 +8273,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>191760</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>55480</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -7980,22 +8296,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>230945</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>61600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -8003,22 +8319,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>326400</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>67720</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/ProductionTechLevelUp.xlsx
+++ b/datas/shared/ProductionTechLevelUp.xlsx
@@ -1,107 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="1200" yWindow="680" windowWidth="34180" windowHeight="16060" tabRatio="883" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
-    <sheet name="stoneCarving" sheetId="30" r:id="rId2"/>
-    <sheet name="forestation" sheetId="33" r:id="rId3"/>
-    <sheet name="fastFix" sheetId="28" r:id="rId4"/>
-    <sheet name="ironSmelting" sheetId="31" r:id="rId5"/>
-    <sheet name="cropResearch" sheetId="34" r:id="rId6"/>
-    <sheet name="reinforcing" sheetId="29" r:id="rId7"/>
-    <sheet name="seniorTower" sheetId="32" r:id="rId8"/>
-    <sheet name="beerSupply" sheetId="35" r:id="rId9"/>
-    <sheet name="rescueTent" sheetId="36" r:id="rId10"/>
-    <sheet name="colonization" sheetId="37" r:id="rId11"/>
-    <sheet name="negotiation" sheetId="38" r:id="rId12"/>
-    <sheet name="trap" sheetId="39" r:id="rId13"/>
-    <sheet name="hideout" sheetId="40" r:id="rId14"/>
-    <sheet name="logistics" sheetId="41" r:id="rId15"/>
-    <sheet name="healingAgent" sheetId="42" r:id="rId16"/>
-    <sheet name="sketching" sheetId="43" r:id="rId17"/>
+    <sheet name="fastFix" sheetId="28" r:id="rId2"/>
+    <sheet name="reinforcing" sheetId="29" r:id="rId3"/>
+    <sheet name="rescueTent" sheetId="36" r:id="rId4"/>
+    <sheet name="colonization" sheetId="37" r:id="rId5"/>
+    <sheet name="negotiation" sheetId="38" r:id="rId6"/>
+    <sheet name="seniorTower" sheetId="32" r:id="rId7"/>
+    <sheet name="trap" sheetId="39" r:id="rId8"/>
+    <sheet name="forestation" sheetId="33" r:id="rId9"/>
+    <sheet name="stoneCarving" sheetId="30" r:id="rId10"/>
+    <sheet name="ironSmelting" sheetId="31" r:id="rId11"/>
+    <sheet name="cropResearch" sheetId="34" r:id="rId12"/>
+    <sheet name="beerSupply" sheetId="35" r:id="rId13"/>
+    <sheet name="healingAgent" sheetId="42" r:id="rId14"/>
+    <sheet name="sketching" sheetId="43" r:id="rId15"/>
+    <sheet name="hideout" sheetId="40" r:id="rId16"/>
+    <sheet name="logistics" sheetId="41" r:id="rId17"/>
     <sheet name="mintedCoin" sheetId="44" r:id="rId18"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>INT_buildTime</t>
+  </si>
+  <si>
+    <t>INT_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -222,7 +226,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +243,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB1A0C7"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -297,7 +307,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="238">
+  <cellStyleXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -540,8 +550,136 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -555,8 +693,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="238">
+  <cellStyles count="366">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -678,6 +819,70 @@
     <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -792,6 +997,70 @@
     <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1241,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1252,7 +1521,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1274,15 +1543,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>660</v>
+        <v>1980</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1297,15 +1567,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>1200</v>
+      </c>
+      <c r="H2" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1740</v>
+        <v>5220</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1320,15 +1593,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="H3" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4560</v>
+        <v>13680</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1343,15 +1619,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H4" s="5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8460</v>
+        <v>25380</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1366,15 +1645,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>7200</v>
+      </c>
+      <c r="H5" s="5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13920</v>
+        <v>41760</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1389,15 +1671,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>14400</v>
+      </c>
+      <c r="H6" s="5">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21000</v>
+        <v>63000</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1412,15 +1697,18 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>28800</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>39840</v>
+        <v>119520</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1435,15 +1723,18 @@
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>43200</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54880</v>
+        <v>164640</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1458,15 +1749,18 @@
         <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>57600</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>72320</v>
+        <v>216960</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1481,15 +1775,18 @@
         <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>72000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>93600</v>
+        <v>280800</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1504,15 +1801,18 @@
         <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>86400</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>118400</v>
+        <v>355200</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1527,15 +1827,18 @@
         <v>120</v>
       </c>
       <c r="G12" s="1">
-        <v>50400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>100800</v>
+      </c>
+      <c r="H12" s="5">
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>183700</v>
+        <v>551100</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1550,15 +1853,18 @@
         <v>240</v>
       </c>
       <c r="G13" s="1">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>115200</v>
+      </c>
+      <c r="H13" s="5">
+        <v>11030</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>225600</v>
+        <v>676800</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1573,15 +1879,18 @@
         <v>480</v>
       </c>
       <c r="G14" s="1">
-        <v>64800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>129600</v>
+      </c>
+      <c r="H14" s="5">
+        <v>13540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>271700</v>
+        <v>815100</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1596,15 +1905,18 @@
         <v>720</v>
       </c>
       <c r="G15" s="1">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>144000</v>
+      </c>
+      <c r="H15" s="5">
+        <v>16310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>384000</v>
+        <v>1152000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1619,7 +1931,10 @@
         <v>960</v>
       </c>
       <c r="G16" s="1">
-        <v>79200</v>
+        <v>158400</v>
+      </c>
+      <c r="H16" s="5">
+        <v>23040</v>
       </c>
     </row>
   </sheetData>
@@ -1636,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1647,7 +1962,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1669,15 +1984,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>687</v>
+        <v>1610</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1692,15 +2008,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>780</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1810</v>
+        <v>4250</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1715,15 +2034,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>1560</v>
+      </c>
+      <c r="H3" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4743</v>
+        <v>11120</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1738,15 +2060,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>3120</v>
+      </c>
+      <c r="H4" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8799</v>
+        <v>20630</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1761,15 +2086,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>4680</v>
+      </c>
+      <c r="H5" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>14477</v>
+        <v>33930</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1784,15 +2112,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>9360</v>
+      </c>
+      <c r="H6" s="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21840</v>
+        <v>51190</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1801,21 +2132,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>15576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>18720</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>41434</v>
+        <v>97110</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1824,21 +2158,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>23064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>28080</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>57076</v>
+        <v>133770</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1847,21 +2184,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>30552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>37440</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>75213</v>
+        <v>176280</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1870,151 +2210,172 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>38040</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>46800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>97344</v>
+        <v>228150</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>45528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>56160</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>123136</v>
+        <v>288600</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>53016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>65520</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>191048</v>
+        <v>447770</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>60504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>74880</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>234624</v>
+        <v>549900</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>67992</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>84240</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>282568</v>
+        <v>662270</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>75480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>93600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>399360</v>
+        <v>936000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>82968</v>
+        <v>102960</v>
+      </c>
+      <c r="H16" s="1">
+        <v>18720</v>
       </c>
     </row>
   </sheetData>
@@ -2031,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2042,7 +2403,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2064,15 +2425,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>753</v>
+        <v>1740</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2081,21 +2443,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>840</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1984</v>
+        <v>4570</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2104,21 +2469,24 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>1680</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5199</v>
+        <v>11970</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2127,21 +2495,24 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>3360</v>
+      </c>
+      <c r="H4" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9645</v>
+        <v>22210</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2150,21 +2521,24 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>5304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>5040</v>
+      </c>
+      <c r="H5" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15869</v>
+        <v>36540</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -2173,21 +2547,24 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>9408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>10080</v>
+      </c>
+      <c r="H6" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23940</v>
+        <v>55130</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2196,21 +2573,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>17616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>20160</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45418</v>
+        <v>104580</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2219,21 +2599,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>25824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>30240</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>62564</v>
+        <v>144060</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -2242,21 +2625,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>34032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>40320</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>82445</v>
+        <v>189840</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -2265,21 +2651,24 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>42240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>50400</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>106704</v>
+        <v>245700</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -2288,21 +2677,24 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
-        <v>50448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>60480</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>134976</v>
+        <v>310800</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2311,21 +2703,24 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
-        <v>58656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>70560</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>209418</v>
+        <v>482220</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -2334,21 +2729,24 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
-        <v>66864</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>80640</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>257184</v>
+        <v>592200</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -2357,21 +2755,24 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1">
-        <v>75072</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>90720</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>309738</v>
+        <v>713220</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2380,21 +2781,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G15" s="1">
-        <v>83280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>100800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>14270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>437760</v>
+        <v>1008000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -2403,13 +2807,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G16" s="1">
-        <v>91488</v>
+        <v>110880</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20160</v>
       </c>
     </row>
   </sheetData>
@@ -2426,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2437,7 +2844,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2459,18 +2866,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>792</v>
+        <v>1370</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -2482,18 +2890,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>660</v>
+      </c>
+      <c r="H2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2088</v>
+        <v>3590</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -2505,18 +2916,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>1320</v>
+      </c>
+      <c r="H3" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5472</v>
+        <v>9410</v>
       </c>
       <c r="C4" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -2528,18 +2942,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>4480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>2640</v>
+      </c>
+      <c r="H4" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10152</v>
+        <v>17450</v>
       </c>
       <c r="C5" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -2551,18 +2968,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>5920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>3961</v>
+      </c>
+      <c r="H5" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16704</v>
+        <v>28710</v>
       </c>
       <c r="C6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2574,18 +2994,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>10240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>7921</v>
+      </c>
+      <c r="H6" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>25200</v>
+        <v>43320</v>
       </c>
       <c r="C7" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -2597,18 +3020,21 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>18880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>15841</v>
+      </c>
+      <c r="H7" s="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>47808</v>
+        <v>82170</v>
       </c>
       <c r="C8" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -2620,18 +3046,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>27520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>23761</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>65856</v>
+        <v>113190</v>
       </c>
       <c r="C9" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -2643,18 +3072,21 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>36160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>31681</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>86784</v>
+        <v>149160</v>
       </c>
       <c r="C10" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -2666,21 +3098,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>39600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>112320</v>
+        <v>193050</v>
       </c>
       <c r="C11" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2689,21 +3124,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>53440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>47521</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>142080</v>
+        <v>244200</v>
       </c>
       <c r="C12" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2712,21 +3150,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>62080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>55441</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220440</v>
+        <v>378890</v>
       </c>
       <c r="C13" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2735,21 +3176,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>70720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>63361</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>270720</v>
+        <v>465300</v>
       </c>
       <c r="C14" s="1">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2758,21 +3202,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>79360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>71280</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>326040</v>
+        <v>560390</v>
       </c>
       <c r="C15" s="1">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2781,21 +3228,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>88000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>79200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>460800</v>
+        <v>792000</v>
       </c>
       <c r="C16" s="1">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2804,7 +3254,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>96640</v>
+        <v>87120</v>
+      </c>
+      <c r="H16" s="1">
+        <v>15840</v>
       </c>
     </row>
   </sheetData>
@@ -2821,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2832,7 +3285,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2854,15 +3307,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>766</v>
+        <v>2230</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2877,15 +3331,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>1880</v>
+      </c>
+      <c r="H2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>2019</v>
+      <c r="B3" s="1">
+        <v>5880</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2900,15 +3357,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>2960</v>
+      </c>
+      <c r="H3" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>5290</v>
+      <c r="B4" s="1">
+        <v>15390</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2923,15 +3383,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>5120</v>
+      </c>
+      <c r="H4" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>9814</v>
+      <c r="B5" s="1">
+        <v>28560</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2946,21 +3409,24 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>5176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>7280</v>
+      </c>
+      <c r="H5" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>16148</v>
+      <c r="B6" s="1">
+        <v>46980</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2969,21 +3435,24 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>9352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>13760</v>
+      </c>
+      <c r="H6" s="1">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>24360</v>
+      <c r="B7" s="1">
+        <v>70880</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2992,21 +3461,24 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>17704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>26720</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>46215</v>
+      <c r="B8" s="1">
+        <v>134460</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -3015,21 +3487,24 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>26056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>39680</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>63661</v>
+      <c r="B9" s="1">
+        <v>185220</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -3038,21 +3513,24 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>34408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>52640</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>83892</v>
+      <c r="B10" s="1">
+        <v>244080</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3061,21 +3539,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>42760</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>65600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>108576</v>
+      <c r="B11" s="1">
+        <v>315900</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -3084,21 +3565,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>51112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>78560</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>137344</v>
+      <c r="B12" s="1">
+        <v>399600</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3107,21 +3591,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>59464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>91520</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>213092</v>
+      <c r="B13" s="1">
+        <v>619990</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3130,21 +3617,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>67816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>104480</v>
+      </c>
+      <c r="H13" s="1">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>261696</v>
+      <c r="B14" s="1">
+        <v>761400</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3153,21 +3643,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>76168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>117440</v>
+      </c>
+      <c r="H14" s="1">
+        <v>15230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>315172</v>
+      <c r="B15" s="1">
+        <v>916990</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3176,21 +3669,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>84520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>130400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>18340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>445440</v>
+      <c r="B16" s="1">
+        <v>1296000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1680</v>
+        <v>960</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -3199,7 +3695,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>92872</v>
+        <v>143360</v>
+      </c>
+      <c r="H16" s="1">
+        <v>25920</v>
       </c>
     </row>
   </sheetData>
@@ -3216,10 +3715,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3227,7 +3726,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3249,15 +3748,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>740</v>
+        <v>2600</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3272,15 +3772,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>2860</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1949</v>
+        <v>6860</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3295,15 +3798,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>4120</v>
+      </c>
+      <c r="H3" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5108</v>
+        <v>17960</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -3318,15 +3824,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>6640</v>
+      </c>
+      <c r="H4" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9476</v>
+        <v>33320</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -3341,15 +3850,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>5233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>9160</v>
+      </c>
+      <c r="H5" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15591</v>
+        <v>54810</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -3358,243 +3870,276 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>9265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>16720</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23521</v>
+        <v>82690</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>17329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>31840</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44621</v>
+        <v>156870</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>25393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>46960</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>61466</v>
+        <v>216090</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>33457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>62080</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>80999</v>
+        <v>284760</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>41521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>77200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>104833</v>
+        <v>368550</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>49585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>92320</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>132608</v>
+        <v>466200</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>57649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>107440</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>205745</v>
+        <v>723320</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>65713</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>122560</v>
+      </c>
+      <c r="H13" s="1">
+        <v>14470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>252673</v>
+        <v>888300</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>73776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>137680</v>
+      </c>
+      <c r="H14" s="1">
+        <v>17770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>304304</v>
+        <v>1069820</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>81841</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>152800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>430081</v>
+        <v>1512000</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>89905</v>
+        <v>167920</v>
+      </c>
+      <c r="H16" s="1">
+        <v>30240</v>
       </c>
     </row>
   </sheetData>
@@ -3611,10 +4156,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3622,7 +4167,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3644,15 +4189,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>594</v>
+        <v>2480</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3667,15 +4213,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>2800</v>
+      </c>
+      <c r="H2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>1566</v>
+      <c r="B3" s="1">
+        <v>6530</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3690,15 +4239,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>4000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>4104</v>
+      <c r="B4" s="1">
+        <v>17100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -3713,15 +4265,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>6400</v>
+      </c>
+      <c r="H4" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>7614</v>
+      <c r="B5" s="1">
+        <v>31730</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -3736,15 +4291,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>8800</v>
+      </c>
+      <c r="H5" s="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>12528</v>
+      <c r="B6" s="1">
+        <v>52200</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -3756,21 +4314,24 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7680</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>16000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>18900</v>
+      <c r="B7" s="1">
+        <v>78750</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -3779,21 +4340,24 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>14160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>30400</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>35856</v>
+      <c r="B8" s="1">
+        <v>149400</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -3802,21 +4366,24 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>20640</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>44800</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>49392</v>
+      <c r="B9" s="1">
+        <v>205800</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3825,21 +4392,24 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>27120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>59200</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>65088</v>
+      <c r="B10" s="1">
+        <v>271200</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3848,21 +4418,24 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>73600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>84240</v>
+      <c r="B11" s="1">
+        <v>351000</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -3871,21 +4444,24 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>40080</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>88000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>106560</v>
+      <c r="B12" s="1">
+        <v>444000</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -3894,21 +4470,24 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>46560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>102400</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>165330</v>
+      <c r="B13" s="1">
+        <v>688880</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -3917,21 +4496,24 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>53040</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>116800</v>
+      </c>
+      <c r="H13" s="1">
+        <v>13780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>203040</v>
+      <c r="B14" s="1">
+        <v>846000</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -3940,21 +4522,24 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>59520</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>131200</v>
+      </c>
+      <c r="H14" s="1">
+        <v>16920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>244530</v>
+      <c r="B15" s="1">
+        <v>1018880</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -3963,21 +4548,24 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>145600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>345600</v>
+      <c r="B16" s="1">
+        <v>1440000</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -3986,10 +4574,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>72480</v>
+        <v>160000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>28800</v>
       </c>
     </row>
   </sheetData>
@@ -4006,10 +4597,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4017,7 +4608,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4039,15 +4630,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>608</v>
+        <v>2600</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4062,15 +4654,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>3660</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1601</v>
+        <v>6860</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4085,15 +4680,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>4920</v>
+      </c>
+      <c r="H3" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4196</v>
+        <v>17960</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4108,15 +4706,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>7440</v>
+      </c>
+      <c r="H4" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7784</v>
+        <v>33320</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4131,15 +4732,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>9960</v>
+      </c>
+      <c r="H5" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>12807</v>
+        <v>54810</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4148,243 +4752,276 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>17520</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>19320</v>
+        <v>82690</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>14048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>32640</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>36653</v>
+        <v>156870</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>20672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>47760</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>50490</v>
+        <v>216090</v>
       </c>
       <c r="C9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>27296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>62880</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>66535</v>
+        <v>284760</v>
       </c>
       <c r="C10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>33920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>78000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>86112</v>
+        <v>368550</v>
       </c>
       <c r="C11" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>40544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>93120</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>108928</v>
+        <v>466200</v>
       </c>
       <c r="C12" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>47168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>108240</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>169004</v>
+        <v>723320</v>
       </c>
       <c r="C13" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>53792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>123360</v>
+      </c>
+      <c r="H13" s="1">
+        <v>14470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>207552</v>
+        <v>888300</v>
       </c>
       <c r="C14" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>60416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>138480</v>
+      </c>
+      <c r="H14" s="1">
+        <v>17770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>249964</v>
+        <v>1069820</v>
       </c>
       <c r="C15" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>67040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>153600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>353280</v>
+        <v>1512000</v>
       </c>
       <c r="C16" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>73664</v>
+        <v>168720</v>
+      </c>
+      <c r="H16" s="1">
+        <v>30240</v>
       </c>
     </row>
   </sheetData>
@@ -4401,10 +5038,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4412,7 +5049,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4434,15 +5071,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>608</v>
+      <c r="B2" s="4">
+        <v>2110</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4457,15 +5095,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>3420</v>
+      </c>
+      <c r="H2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1601</v>
+      <c r="B3" s="4">
+        <v>5550</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4480,15 +5121,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>4440</v>
+      </c>
+      <c r="H3" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>4196</v>
+      <c r="B4" s="4">
+        <v>14540</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4503,15 +5147,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>6480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>7784</v>
+      <c r="B5" s="4">
+        <v>26970</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4526,15 +5173,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>8520</v>
+      </c>
+      <c r="H5" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>12807</v>
+      <c r="B6" s="4">
+        <v>44370</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4546,21 +5196,24 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>7424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>14640</v>
+      </c>
+      <c r="H6" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>19320</v>
+      <c r="B7" s="4">
+        <v>66940</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4569,21 +5222,24 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1">
-        <v>14048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>26880</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>36653</v>
+      <c r="B8" s="4">
+        <v>126990</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -4592,21 +5248,24 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1">
-        <v>20672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>39120</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>50490</v>
+      <c r="B9" s="4">
+        <v>174930</v>
       </c>
       <c r="C9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -4615,21 +5274,24 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1">
-        <v>27296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>51360</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>66535</v>
+      <c r="B10" s="4">
+        <v>230520</v>
       </c>
       <c r="C10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -4638,21 +5300,24 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G10" s="1">
-        <v>33920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>63600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>86112</v>
+      <c r="B11" s="4">
+        <v>298350</v>
       </c>
       <c r="C11" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -4661,21 +5326,24 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G11" s="1">
-        <v>40544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>75840</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>108928</v>
+      <c r="B12" s="4">
+        <v>377400</v>
       </c>
       <c r="C12" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -4684,21 +5352,24 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="G12" s="1">
-        <v>47168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>88080</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>169004</v>
+      <c r="B13" s="4">
+        <v>585550</v>
       </c>
       <c r="C13" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -4707,21 +5378,24 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="G13" s="1">
-        <v>53792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>100320</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>207552</v>
+      <c r="B14" s="4">
+        <v>719100</v>
       </c>
       <c r="C14" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -4730,21 +5404,24 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="1">
-        <v>60416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>112560</v>
+      </c>
+      <c r="H14" s="1">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>249964</v>
+      <c r="B15" s="4">
+        <v>866050</v>
       </c>
       <c r="C15" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -4753,21 +5430,24 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="G15" s="1">
-        <v>67040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>124800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>17330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>353280</v>
+        <v>1224000</v>
       </c>
       <c r="C16" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -4776,10 +5456,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="G16" s="1">
-        <v>73664</v>
+        <v>137040</v>
+      </c>
+      <c r="H16" s="1">
+        <v>24480</v>
       </c>
     </row>
   </sheetData>
@@ -4796,10 +5479,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4807,7 +5490,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4829,15 +5512,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>832</v>
+        <v>3960</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4852,15 +5536,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>5920</v>
+      </c>
+      <c r="H2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2193</v>
+        <v>10440</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4875,15 +5562,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>3512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>7840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5746</v>
+        <v>27360</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4898,15 +5588,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>5024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>11680</v>
+      </c>
+      <c r="H4" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10660</v>
+        <v>50760</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4921,15 +5614,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>6536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>15520</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>17540</v>
+        <v>83520</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4944,15 +5640,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>11072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>27040</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>26460</v>
+        <v>126000</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4967,15 +5666,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>20144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>50080</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>50199</v>
+        <v>239040</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -4990,15 +5692,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>29216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>73120</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>69149</v>
+        <v>329280</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -5013,15 +5718,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>38288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>96160</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>91124</v>
+        <v>433920</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -5036,15 +5744,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>47360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>119200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>117936</v>
+        <v>561600</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -5059,15 +5770,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>56432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>142240</v>
+      </c>
+      <c r="H11" s="1">
+        <v>11240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>149184</v>
+        <v>710400</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -5082,15 +5796,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>65504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>165280</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>231462</v>
+        <v>1102200</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -5105,15 +5822,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>74576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>188320</v>
+      </c>
+      <c r="H13" s="1">
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>284256</v>
+        <v>1353600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -5128,15 +5848,18 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>83648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>211360</v>
+      </c>
+      <c r="H14" s="1">
+        <v>27080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>342342</v>
+        <v>1630200</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -5151,15 +5874,18 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>92720</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>234400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>32610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>483840</v>
+        <v>2304000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -5174,7 +5900,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>101792</v>
+        <v>257440</v>
+      </c>
+      <c r="H16" s="1">
+        <v>46080</v>
       </c>
     </row>
   </sheetData>
@@ -5191,10 +5920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5202,7 +5931,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5224,15 +5953,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>542</v>
+        <v>2730</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -5247,15 +5977,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>1920</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1427</v>
+        <v>7180</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -5270,15 +6003,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>3240</v>
+      </c>
+      <c r="H3" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3740</v>
+        <v>18810</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -5293,15 +6029,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>5880</v>
+      </c>
+      <c r="H4" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>6938</v>
+        <v>34900</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -5316,15 +6055,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>8521</v>
+      </c>
+      <c r="H5" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11415</v>
+        <v>57420</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5339,15 +6081,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>5904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>16441</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>17220</v>
+        <v>86630</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -5359,18 +6104,21 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>11808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>32281</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>32669</v>
+        <v>164340</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -5382,18 +6130,21 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>17712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>48121</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45002</v>
+        <v>226380</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -5405,18 +6156,21 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>23616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>63961</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>59303</v>
+        <v>298320</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -5428,148 +6182,169 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>29520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>79800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>76752</v>
+        <v>386100</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>35424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>95641</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>97088</v>
+        <v>488400</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1">
-        <v>41328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>111481</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9770</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>150634</v>
+        <v>757770</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G13" s="1">
-        <v>47232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>127321</v>
+      </c>
+      <c r="H13" s="1">
+        <v>15160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>184992</v>
+        <v>930600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G14" s="1">
-        <v>53136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>143160</v>
+      </c>
+      <c r="H14" s="1">
+        <v>18620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>222794</v>
+        <v>1120770</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="G15" s="1">
-        <v>59040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>159000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>22420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>314880</v>
+        <v>1584000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="G16" s="1">
-        <v>64944</v>
+        <v>174840</v>
+      </c>
+      <c r="H16" s="1">
+        <v>31680</v>
       </c>
     </row>
   </sheetData>
@@ -5586,10 +6361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5597,7 +6372,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5619,15 +6394,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>528</v>
+        <v>3220</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -5642,15 +6418,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>2760</v>
+      </c>
+      <c r="H2" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1392</v>
+        <v>8490</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -5665,15 +6444,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>4320</v>
+      </c>
+      <c r="H3" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3648</v>
+        <v>22230</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -5688,15 +6470,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>7440</v>
+      </c>
+      <c r="H4" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>6768</v>
+        <v>41250</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -5711,15 +6496,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>10560</v>
+      </c>
+      <c r="H5" s="1">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11136</v>
+        <v>67860</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5734,18 +6522,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>19920</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>16800</v>
+        <v>102380</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -5757,18 +6548,21 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>11520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>38640</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>31872</v>
+        <v>194220</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5780,18 +6574,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>17280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>57360</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>43904</v>
+        <v>267540</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -5803,18 +6600,21 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>23040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>76080</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>57856</v>
+        <v>352560</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -5826,21 +6626,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>94800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>74880</v>
+        <v>456300</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -5849,21 +6652,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>34560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>113520</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>94720</v>
+        <v>577200</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -5872,21 +6678,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>40320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>132240</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>146960</v>
+        <v>895540</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -5895,21 +6704,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>46080</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>150960</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>180480</v>
+        <v>1099800</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -5918,21 +6730,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>51840</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>169680</v>
+      </c>
+      <c r="H14" s="1">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>217360</v>
+        <v>1324540</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="D15" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -5941,21 +6756,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>188400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>307200</v>
+        <v>1872000</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -5964,7 +6782,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>63360</v>
+        <v>207120</v>
+      </c>
+      <c r="H16" s="1">
+        <v>37440</v>
       </c>
     </row>
   </sheetData>
@@ -5981,10 +6802,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5992,7 +6813,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6014,15 +6835,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>627</v>
+        <v>2730</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -6037,15 +6859,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>2520</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1653</v>
+        <v>7180</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -6060,15 +6885,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>3840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4332</v>
+        <v>18810</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -6083,15 +6911,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>6480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8037</v>
+        <v>34900</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -6106,15 +6937,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>9121</v>
+      </c>
+      <c r="H5" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13224</v>
+        <v>57420</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -6129,15 +6963,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>17041</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>19950</v>
+        <v>86630</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -6146,21 +6983,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>13980</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>32881</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>37848</v>
+        <v>164340</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -6169,21 +7009,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>20820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>48721</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>52136</v>
+        <v>226380</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -6192,21 +7035,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>27660</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>64561</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>68704</v>
+        <v>298320</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -6215,21 +7061,24 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>34500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>80400</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>88920</v>
+        <v>386100</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -6238,21 +7087,24 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>41340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>96241</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>112480</v>
+        <v>488400</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -6261,21 +7113,24 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F12" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>48180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>112081</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9770</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>174515</v>
+        <v>757770</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -6284,21 +7139,24 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F13" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>55020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>127921</v>
+      </c>
+      <c r="H13" s="1">
+        <v>15160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>214320</v>
+        <v>930600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -6307,21 +7165,24 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F14" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>61860</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>143760</v>
+      </c>
+      <c r="H14" s="1">
+        <v>18620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>258115</v>
+        <v>1120770</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -6330,21 +7191,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F15" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>68700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>159600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>22420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>364800</v>
+        <v>1584000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -6353,13 +7217,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F16" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>75540</v>
+        <v>175440</v>
+      </c>
+      <c r="H16" s="1">
+        <v>31680</v>
       </c>
     </row>
   </sheetData>
@@ -6376,10 +7243,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6387,7 +7254,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6409,15 +7276,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>555</v>
+        <v>2970</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -6426,21 +7294,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>3840</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1462</v>
+        <v>7830</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -6449,21 +7320,24 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>5280</v>
+      </c>
+      <c r="H3" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3831</v>
+        <v>20520</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -6472,21 +7346,24 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>8160</v>
+      </c>
+      <c r="H4" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7107</v>
+        <v>38070</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -6495,21 +7372,24 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>11040</v>
+      </c>
+      <c r="H5" s="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11693</v>
+        <v>62640</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -6518,21 +7398,24 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>6048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>19680</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>17640</v>
+        <v>94500</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -6541,21 +7424,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>12096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>36960</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>33466</v>
+        <v>179280</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -6564,21 +7450,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>18144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>54240</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>46100</v>
+        <v>246960</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -6587,21 +7476,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>24192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>71520</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>60749</v>
+        <v>325440</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -6610,21 +7502,24 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>30240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>88800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>78624</v>
+        <v>421200</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -6633,21 +7528,24 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>36288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>106080</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>99456</v>
+        <v>532800</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -6656,21 +7554,24 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>42336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>123360</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>154308</v>
+        <v>826650</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -6679,21 +7580,24 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="F13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>48384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>140640</v>
+      </c>
+      <c r="H13" s="1">
+        <v>16540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>189504</v>
+        <v>1015200</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -6702,21 +7606,24 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="F14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>54432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>157920</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>228228</v>
+        <v>1222650</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -6725,21 +7632,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="F15" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>60480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>175200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>24460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>322560</v>
+        <v>1728000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -6748,13 +7658,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>66528</v>
+        <v>192480</v>
+      </c>
+      <c r="H16" s="1">
+        <v>34560</v>
       </c>
     </row>
   </sheetData>
@@ -6771,10 +7684,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6782,7 +7695,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6804,18 +7717,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>568</v>
+        <v>3100</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -6827,18 +7741,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>4700</v>
+      </c>
+      <c r="H2" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1497</v>
+        <v>8160</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -6850,18 +7767,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>6200</v>
+      </c>
+      <c r="H3" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3922</v>
+        <v>21380</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -6873,18 +7793,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>9200</v>
+      </c>
+      <c r="H4" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7276</v>
+        <v>39660</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -6896,18 +7819,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3096</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>12200</v>
+      </c>
+      <c r="H5" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11972</v>
+        <v>65250</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -6919,18 +7845,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>6192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>21200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>18060</v>
+        <v>98440</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -6942,18 +7871,21 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>12384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>39200</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>34263</v>
+        <v>186750</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -6965,18 +7897,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>18576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>57200</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>47197</v>
+        <v>257250</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -6988,18 +7923,21 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>24768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>75200</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>62196</v>
+        <v>339000</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -7011,21 +7949,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>30960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>93200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>80496</v>
+        <v>438750</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -7034,21 +7975,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>37152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>111200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>101824</v>
+        <v>555000</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -7057,21 +8001,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>43344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>129200</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>157982</v>
+        <v>861100</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="D13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -7080,21 +8027,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>49536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>147200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>194016</v>
+        <v>1057500</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="D14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -7103,21 +8053,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>55728</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>165200</v>
+      </c>
+      <c r="H14" s="1">
+        <v>21150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>233662</v>
+        <v>1273600</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="D15" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -7126,21 +8079,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>61920</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>183200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>25480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>330240</v>
+        <v>1800000</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="D16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -7149,7 +8105,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>68112</v>
+        <v>201200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>36000</v>
       </c>
     </row>
   </sheetData>
@@ -7166,10 +8125,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7177,7 +8136,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7199,15 +8158,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>759</v>
+        <v>3720</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -7222,15 +8182,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>3400</v>
+      </c>
+      <c r="H2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2001</v>
+        <v>9790</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -7245,15 +8208,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>5200</v>
+      </c>
+      <c r="H3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5244</v>
+        <v>25650</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -7268,15 +8234,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>8800</v>
+      </c>
+      <c r="H4" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9729</v>
+        <v>47590</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -7291,15 +8260,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4740</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>12400</v>
+      </c>
+      <c r="H5" s="1">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16008</v>
+        <v>78300</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -7308,243 +8280,276 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8880</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>23200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>24150</v>
+        <v>118130</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>17160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>44800</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45816</v>
+        <v>224100</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>25440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>66400</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>63112</v>
+        <v>308700</v>
       </c>
       <c r="C9" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>33720</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>88000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>83168</v>
+        <v>406800</v>
       </c>
       <c r="C10" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>109600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>107640</v>
+        <v>526500</v>
       </c>
       <c r="C11" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>50280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>131200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>136160</v>
+        <v>666000</v>
       </c>
       <c r="C12" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>58560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>152800</v>
+      </c>
+      <c r="H12" s="1">
+        <v>13320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>211255</v>
+        <v>1033320</v>
       </c>
       <c r="C13" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>66840</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>174400</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>259440</v>
+        <v>1269000</v>
       </c>
       <c r="C14" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>75120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>196000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>25380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>312455</v>
+        <v>1528320</v>
       </c>
       <c r="C15" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>83400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>217600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>30570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>441600</v>
+        <v>2160000</v>
       </c>
       <c r="C16" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>91680</v>
+        <v>239200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>43200</v>
       </c>
     </row>
   </sheetData>
@@ -7561,10 +8566,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7572,7 +8577,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7594,15 +8599,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>693</v>
+      <c r="B2" s="4">
+        <v>2850</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -7617,15 +8623,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>3380</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1827</v>
+      <c r="B3" s="4">
+        <v>7510</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -7640,15 +8649,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>4760</v>
+      </c>
+      <c r="H3" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>4788</v>
+      <c r="B4" s="4">
+        <v>19670</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -7663,15 +8675,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>7520</v>
+      </c>
+      <c r="H4" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>8883</v>
+      <c r="B5" s="4">
+        <v>36490</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -7686,260 +8701,296 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>10280</v>
+      </c>
+      <c r="H5" s="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>14616</v>
+      <c r="B6" s="4">
+        <v>60030</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>18560</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>22050</v>
+      <c r="B7" s="4">
+        <v>90570</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>15920</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>35120</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>41832</v>
+      <c r="B8" s="4">
+        <v>171810</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>23480</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>51680</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>57624</v>
+      <c r="B9" s="4">
+        <v>236670</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>31040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>68240</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>75936</v>
+      <c r="B10" s="4">
+        <v>311880</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E10" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>38600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>84800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>98280</v>
+      <c r="B11" s="4">
+        <v>403650</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="E11" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>46160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>101360</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>124320</v>
+      <c r="B12" s="4">
+        <v>510600</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E12" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>53720</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>117920</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>192885</v>
+      <c r="B13" s="4">
+        <v>792210</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="E13" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>61280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>134480</v>
+      </c>
+      <c r="H13" s="1">
+        <v>15850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>236880</v>
+      <c r="B14" s="4">
+        <v>972900</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>68840</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>151040</v>
+      </c>
+      <c r="H14" s="1">
+        <v>19460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>285285</v>
+      <c r="B15" s="4">
+        <v>1171710</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="E15" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>76400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>167600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>23440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>403200</v>
+        <v>1656000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="E16" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>83960</v>
+        <v>184160</v>
+      </c>
+      <c r="H16" s="1">
+        <v>33120</v>
       </c>
     </row>
   </sheetData>
@@ -7956,10 +9007,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7967,7 +9018,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7989,15 +9040,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>561</v>
+        <v>1490</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -8012,15 +9064,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>720</v>
+      </c>
+      <c r="H2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1479</v>
+        <v>3920</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -8035,15 +9090,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>1440</v>
+      </c>
+      <c r="H3" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3876</v>
+        <v>10260</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -8058,15 +9116,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>2880</v>
+      </c>
+      <c r="H4" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7191</v>
+        <v>19040</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -8081,15 +9142,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>4320</v>
+      </c>
+      <c r="H5" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11832</v>
+        <v>31320</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -8104,21 +9168,24 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>6520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>8640</v>
+      </c>
+      <c r="H6" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>17850</v>
+        <v>47250</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -8127,21 +9194,24 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>12640</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>17280</v>
+      </c>
+      <c r="H7" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>33864</v>
+        <v>89640</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -8150,21 +9220,24 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>18760</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>25920</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>46648</v>
+        <v>123480</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -8173,21 +9246,24 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>24880</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>34560</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>61472</v>
+        <v>162720</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -8196,21 +9272,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>43200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>79560</v>
+        <v>210600</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -8219,21 +9298,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>37120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>51840</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>100640</v>
+        <v>266400</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -8242,21 +9324,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>60480</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>156145</v>
+        <v>413330</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -8265,21 +9350,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>49360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>69120</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>191760</v>
+        <v>507600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -8288,21 +9376,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>55480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>77760</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>230945</v>
+        <v>611330</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -8311,21 +9402,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>61600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>86400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>326400</v>
+        <v>864000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -8334,7 +9428,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>67720</v>
+        <v>95040</v>
+      </c>
+      <c r="H16" s="1">
+        <v>17280</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/ProductionTechLevelUp.xlsx
+++ b/datas/shared/ProductionTechLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="0" windowWidth="34180" windowHeight="16060" tabRatio="883" activeTab="17"/>
+    <workbookView xWindow="4600" yWindow="1100" windowWidth="34180" windowHeight="16060" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="reinforcing" sheetId="29" r:id="rId3"/>
     <sheet name="rescueTent" sheetId="36" r:id="rId4"/>
     <sheet name="colonization" sheetId="37" r:id="rId5"/>
-    <sheet name="negotiation" sheetId="38" r:id="rId6"/>
+    <sheet name="recruitment" sheetId="38" r:id="rId6"/>
     <sheet name="seniorTower" sheetId="32" r:id="rId7"/>
     <sheet name="trap" sheetId="39" r:id="rId8"/>
     <sheet name="forestation" sheetId="33" r:id="rId9"/>
@@ -9315,7 +9315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -13470,8 +13470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H31"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/ProductionTechLevelUp.xlsx
+++ b/datas/shared/ProductionTechLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24380" yWindow="0" windowWidth="24840" windowHeight="13000" tabRatio="928" firstSheet="4" activeTab="17"/>
+    <workbookView xWindow="500" yWindow="0" windowWidth="30260" windowHeight="20880" tabRatio="928" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
@@ -307,7 +307,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="684">
+  <cellStyleXfs count="722">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -322,6 +322,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1015,7 +1053,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="684">
+  <cellStyles count="722">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1360,6 +1398,25 @@
     <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1697,6 +1754,25 @@
     <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2149,7 +2225,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3759,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H66"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4172,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>18700</v>
@@ -4198,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>21076</v>
@@ -4224,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>23526</v>
@@ -4250,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>26048</v>
@@ -4276,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>28642</v>
@@ -4302,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>31310</v>
@@ -4328,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>34050</v>
@@ -4354,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>36864</v>
@@ -4380,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>39750</v>
@@ -4406,10 +4482,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>42708</v>
@@ -4432,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>45740</v>
@@ -4458,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>48844</v>
@@ -4484,10 +4560,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>52022</v>
@@ -4510,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F29" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>55272</v>
@@ -4536,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>58594</v>
@@ -4562,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>61990</v>
@@ -4588,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>65458</v>
@@ -4614,10 +4690,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>69000</v>
@@ -4640,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>72614</v>
@@ -4666,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>76300</v>
@@ -4692,10 +4768,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F36" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>80060</v>
@@ -4718,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>83892</v>
@@ -4744,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F38" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>87798</v>
@@ -4770,10 +4846,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>91776</v>
@@ -4796,10 +4872,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>95826</v>
@@ -4822,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F41" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>99950</v>
@@ -4848,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F42" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>104146</v>
@@ -4874,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F43" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>108416</v>
@@ -4900,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F44" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>112758</v>
@@ -4926,10 +5002,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F45" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>117172</v>
@@ -4952,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>121660</v>
@@ -4978,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>126220</v>
@@ -5004,10 +5080,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="F48" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>130854</v>
@@ -5030,10 +5106,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F49" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>135560</v>
@@ -5056,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F50" s="1">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>140338</v>
@@ -5082,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F51" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>145190</v>
@@ -5108,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F52" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>150114</v>
@@ -5134,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F53" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>155112</v>
@@ -5160,10 +5236,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F54" s="1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>160182</v>
@@ -5186,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F55" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>165324</v>
@@ -5212,10 +5288,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F56" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>170540</v>
@@ -5238,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>175828</v>
@@ -5264,10 +5340,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="F58" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>181190</v>
@@ -5290,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F59" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>186624</v>
@@ -5316,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F60" s="1">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>192130</v>
@@ -5342,10 +5418,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F61" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>197710</v>
@@ -5370,7 +5446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A56" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H63"/>
     </sheetView>
   </sheetViews>
@@ -6981,7 +7057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A51" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H66"/>
     </sheetView>
   </sheetViews>
@@ -8592,7 +8668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A78" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H67"/>
     </sheetView>
   </sheetViews>
@@ -10203,7 +10279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A51" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H64"/>
     </sheetView>
   </sheetViews>
@@ -13425,8 +13501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H62"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13838,10 +13914,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>32430</v>
@@ -13864,10 +13940,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>36269</v>
@@ -13890,10 +13966,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>40225</v>
@@ -13916,10 +13992,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>44299</v>
@@ -13942,10 +14018,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>48491</v>
@@ -13968,10 +14044,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>52800</v>
@@ -13994,10 +14070,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>57227</v>
@@ -14020,10 +14096,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>61771</v>
@@ -14046,10 +14122,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>66433</v>
@@ -14072,10 +14148,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>71213</v>
@@ -14098,10 +14174,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>76110</v>
@@ -14124,10 +14200,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>81125</v>
@@ -14150,10 +14226,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>86257</v>
@@ -14176,10 +14252,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F29" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>91507</v>
@@ -14202,10 +14278,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>96875</v>
@@ -14228,10 +14304,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>102360</v>
@@ -14254,10 +14330,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>107963</v>
@@ -14280,10 +14356,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>113683</v>
@@ -14306,10 +14382,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>119521</v>
@@ -14332,10 +14408,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>125477</v>
@@ -14358,10 +14434,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F36" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>131550</v>
@@ -14384,10 +14460,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>137741</v>
@@ -14410,10 +14486,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F38" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>144049</v>
@@ -14436,10 +14512,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>150475</v>
@@ -14462,10 +14538,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>157019</v>
@@ -14488,10 +14564,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F41" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>163680</v>
@@ -14514,10 +14590,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F42" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>170459</v>
@@ -14540,10 +14616,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F43" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>177355</v>
@@ -14566,10 +14642,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F44" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>184369</v>
@@ -14592,10 +14668,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F45" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>191501</v>
@@ -14618,10 +14694,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>198750</v>
@@ -14644,10 +14720,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>206117</v>
@@ -14670,10 +14746,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="F48" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>213601</v>
@@ -14696,10 +14772,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F49" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>221203</v>
@@ -14722,10 +14798,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F50" s="1">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>228923</v>
@@ -14748,10 +14824,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F51" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>236760</v>
@@ -14774,10 +14850,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F52" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>244715</v>
@@ -14800,10 +14876,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F53" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>252787</v>
@@ -14826,10 +14902,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F54" s="1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>260977</v>
@@ -14852,10 +14928,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F55" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>269285</v>
@@ -14878,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F56" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>277710</v>
@@ -14904,10 +14980,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>286253</v>
@@ -14930,10 +15006,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="F58" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>294913</v>
@@ -14956,10 +15032,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F59" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>303691</v>
@@ -14982,10 +15058,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F60" s="1">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>312587</v>
@@ -15008,10 +15084,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F61" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>321600</v>
@@ -16647,7 +16723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -18258,8 +18334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -18665,7 +18741,7 @@
         <v>21790</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -18674,7 +18750,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>32060</v>
@@ -18691,7 +18767,7 @@
         <v>25540</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -18700,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>36082</v>
@@ -18717,7 +18793,7 @@
         <v>28070</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -18726,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>40226</v>
@@ -18743,7 +18819,7 @@
         <v>30820</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -18752,7 +18828,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>44494</v>
@@ -18769,7 +18845,7 @@
         <v>33890</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -18778,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>48886</v>
@@ -18795,7 +18871,7 @@
         <v>37190</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -18804,7 +18880,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>53400</v>
@@ -18821,7 +18897,7 @@
         <v>40820</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -18830,7 +18906,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>58038</v>
@@ -18847,7 +18923,7 @@
         <v>44890</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -18856,7 +18932,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>62798</v>
@@ -18873,7 +18949,7 @@
         <v>49410</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -18882,7 +18958,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>67682</v>
@@ -18899,7 +18975,7 @@
         <v>61070</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -18908,7 +18984,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>72690</v>
@@ -18925,7 +19001,7 @@
         <v>67550</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -18934,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>77820</v>
@@ -18951,7 +19027,7 @@
         <v>74920</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -18960,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>83074</v>
@@ -18977,7 +19053,7 @@
         <v>83170</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -18986,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>88450</v>
@@ -19003,7 +19079,7 @@
         <v>92420</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -19012,7 +19088,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>93950</v>
@@ -19029,7 +19105,7 @@
         <v>102650</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -19038,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>99574</v>
@@ -19055,7 +19131,7 @@
         <v>114200</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -19064,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>105320</v>
@@ -19081,7 +19157,7 @@
         <v>127070</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -19090,7 +19166,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>111190</v>
@@ -19107,7 +19183,7 @@
         <v>162370</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -19116,7 +19192,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>117182</v>
@@ -19133,7 +19209,7 @@
         <v>181630</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -19142,7 +19218,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>123298</v>
@@ -19159,7 +19235,7 @@
         <v>203080</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -19168,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>129538</v>
@@ -19185,7 +19261,7 @@
         <v>227170</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -19194,7 +19270,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>135900</v>
@@ -19211,7 +19287,7 @@
         <v>254340</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -19220,7 +19296,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>142386</v>
@@ -19237,7 +19313,7 @@
         <v>284580</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -19246,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>148994</v>
@@ -19263,7 +19339,7 @@
         <v>318790</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -19272,7 +19348,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>155726</v>
@@ -19289,7 +19365,7 @@
         <v>357070</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -19298,7 +19374,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>162582</v>
@@ -19315,7 +19391,7 @@
         <v>459270</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -19324,7 +19400,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>169560</v>
@@ -19341,7 +19417,7 @@
         <v>515150</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -19350,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>176662</v>
@@ -19367,7 +19443,7 @@
         <v>577840</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -19376,7 +19452,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>183886</v>
@@ -19393,7 +19469,7 @@
         <v>648130</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -19402,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>191234</v>
@@ -19419,7 +19495,7 @@
         <v>726900</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -19428,7 +19504,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>198706</v>
@@ -19445,7 +19521,7 @@
         <v>815010</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -19454,7 +19530,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>206300</v>
@@ -19471,7 +19547,7 @@
         <v>913680</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -19480,7 +19556,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>214018</v>
@@ -19497,7 +19573,7 @@
         <v>1023900</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -19506,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>221858</v>
@@ -19523,7 +19599,7 @@
         <v>1303510</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -19532,7 +19608,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>229822</v>
@@ -19549,7 +19625,7 @@
         <v>1461260</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -19558,7 +19634,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>237910</v>
@@ -19575,7 +19651,7 @@
         <v>1637260</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -19584,7 +19660,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>246120</v>
@@ -19601,7 +19677,7 @@
         <v>1833720</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -19610,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>254454</v>
@@ -19627,7 +19703,7 @@
         <v>2053610</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -19636,7 +19712,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>262910</v>
@@ -19653,7 +19729,7 @@
         <v>2298900</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -19662,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>271490</v>
@@ -19679,7 +19755,7 @@
         <v>2572800</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -19688,7 +19764,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>280194</v>
@@ -19705,7 +19781,7 @@
         <v>2878600</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -19714,7 +19790,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>289020</v>
@@ -19731,7 +19807,7 @@
         <v>3219610</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -19740,7 +19816,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>297970</v>
@@ -19757,7 +19833,7 @@
         <v>3599110</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -19766,7 +19842,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>307042</v>
@@ -19783,7 +19859,7 @@
         <v>4023710</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -19792,7 +19868,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>316238</v>
@@ -19809,7 +19885,7 @@
         <v>4495600</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -19818,7 +19894,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>325558</v>
@@ -19835,7 +19911,7 @@
         <v>5021400</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -19844,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>335000</v>
@@ -19870,7 +19946,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -20276,16 +20352,16 @@
         <v>26570</v>
       </c>
       <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>38380</v>
@@ -20302,16 +20378,16 @@
         <v>30990</v>
       </c>
       <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>43133</v>
@@ -20328,16 +20404,16 @@
         <v>33980</v>
       </c>
       <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
         <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>48031</v>
@@ -20354,16 +20430,16 @@
         <v>37230</v>
       </c>
       <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
         <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>53075</v>
@@ -20380,16 +20456,16 @@
         <v>40870</v>
       </c>
       <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
         <v>15</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>58265</v>
@@ -20406,16 +20482,16 @@
         <v>44770</v>
       </c>
       <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <v>20</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>63600</v>
@@ -20432,16 +20508,16 @@
         <v>49060</v>
       </c>
       <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>25</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>69081</v>
@@ -20458,16 +20534,16 @@
         <v>53870</v>
       </c>
       <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>30</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>74707</v>
@@ -20484,16 +20560,16 @@
         <v>59200</v>
       </c>
       <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
         <v>35</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>80479</v>
@@ -20510,16 +20586,16 @@
         <v>72980</v>
       </c>
       <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
         <v>40</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>86397</v>
@@ -20536,16 +20612,16 @@
         <v>80650</v>
       </c>
       <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
         <v>45</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>92460</v>
@@ -20562,16 +20638,16 @@
         <v>89360</v>
       </c>
       <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
         <v>50</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>98669</v>
@@ -20588,16 +20664,16 @@
         <v>99110</v>
       </c>
       <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
         <v>55</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>105023</v>
@@ -20614,16 +20690,16 @@
         <v>110030</v>
       </c>
       <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
         <v>60</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>111523</v>
@@ -20640,16 +20716,16 @@
         <v>122120</v>
       </c>
       <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <v>65</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>118169</v>
@@ -20666,16 +20742,16 @@
         <v>135770</v>
       </c>
       <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
         <v>70</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>124960</v>
@@ -20692,16 +20768,16 @@
         <v>150980</v>
       </c>
       <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
         <v>75</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>131897</v>
@@ -20718,16 +20794,16 @@
         <v>192710</v>
       </c>
       <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
         <v>80</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>138979</v>
@@ -20744,16 +20820,16 @@
         <v>215460</v>
       </c>
       <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
         <v>85</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>146207</v>
@@ -20770,16 +20846,16 @@
         <v>240810</v>
       </c>
       <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
         <v>90</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>153581</v>
@@ -20796,16 +20872,16 @@
         <v>269280</v>
       </c>
       <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
         <v>95</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>161100</v>
@@ -20822,16 +20898,16 @@
         <v>301390</v>
       </c>
       <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
         <v>100</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>168765</v>
@@ -20848,16 +20924,16 @@
         <v>337140</v>
       </c>
       <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <v>105</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>176575</v>
@@ -20874,16 +20950,16 @@
         <v>377570</v>
       </c>
       <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
         <v>110</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>184531</v>
@@ -20900,16 +20976,16 @@
         <v>422810</v>
       </c>
       <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
         <v>115</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>192633</v>
@@ -20926,16 +21002,16 @@
         <v>543580</v>
       </c>
       <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
         <v>120</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>200880</v>
@@ -20952,16 +21028,16 @@
         <v>609620</v>
       </c>
       <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
         <v>125</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>209273</v>
@@ -20978,16 +21054,16 @@
         <v>683720</v>
       </c>
       <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
         <v>130</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>217811</v>
@@ -21004,16 +21080,16 @@
         <v>766790</v>
       </c>
       <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
         <v>135</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>226495</v>
@@ -21030,16 +21106,16 @@
         <v>859870</v>
       </c>
       <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
         <v>140</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>235325</v>
@@ -21056,16 +21132,16 @@
         <v>964000</v>
       </c>
       <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
         <v>145</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>244300</v>
@@ -21082,16 +21158,16 @@
         <v>1080610</v>
       </c>
       <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
         <v>150</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>253421</v>
@@ -21108,16 +21184,16 @@
         <v>1210870</v>
       </c>
       <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
         <v>155</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>262687</v>
@@ -21134,16 +21210,16 @@
         <v>1541330</v>
       </c>
       <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
         <v>160</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>272099</v>
@@ -21160,16 +21236,16 @@
         <v>1727750</v>
       </c>
       <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
         <v>165</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>281657</v>
@@ -21186,16 +21262,16 @@
         <v>1935750</v>
       </c>
       <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
         <v>170</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>291360</v>
@@ -21212,16 +21288,16 @@
         <v>2167930</v>
       </c>
       <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
         <v>175</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>301209</v>
@@ -21238,16 +21314,16 @@
         <v>2427800</v>
       </c>
       <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
         <v>180</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>311203</v>
@@ -21264,16 +21340,16 @@
         <v>2717700</v>
       </c>
       <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
         <v>185</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>321343</v>
@@ -21290,16 +21366,16 @@
         <v>3041400</v>
       </c>
       <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
         <v>190</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>331629</v>
@@ -21316,16 +21392,16 @@
         <v>3402800</v>
       </c>
       <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
         <v>195</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>342060</v>
@@ -21342,16 +21418,16 @@
         <v>3805800</v>
       </c>
       <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
         <v>200</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>352637</v>
@@ -21368,16 +21444,16 @@
         <v>4254300</v>
       </c>
       <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
         <v>205</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>363359</v>
@@ -21394,16 +21470,16 @@
         <v>4756100</v>
       </c>
       <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
         <v>210</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>374227</v>
@@ -21420,16 +21496,16 @@
         <v>5313800</v>
       </c>
       <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
         <v>220</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>385241</v>
@@ -21446,16 +21522,16 @@
         <v>5935200</v>
       </c>
       <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
         <v>240</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>396400</v>
@@ -21481,7 +21557,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E2" sqref="E2:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -21893,10 +21969,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>32660</v>
@@ -21919,10 +21995,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>36682</v>
@@ -21945,10 +22021,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
         <v>5</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>40826</v>
@@ -21971,10 +22047,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
         <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>45094</v>
@@ -21997,10 +22073,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
         <v>15</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>49486</v>
@@ -22023,10 +22099,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <v>20</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>54000</v>
@@ -22049,10 +22125,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>25</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>58638</v>
@@ -22075,10 +22151,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>30</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>63398</v>
@@ -22101,10 +22177,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
         <v>35</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>68282</v>
@@ -22127,10 +22203,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
         <v>40</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>73290</v>
@@ -22153,10 +22229,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
         <v>45</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>78420</v>
@@ -22179,10 +22255,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
         <v>50</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>83674</v>
@@ -22205,10 +22281,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
         <v>55</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>89050</v>
@@ -22231,10 +22307,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
         <v>60</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>94550</v>
@@ -22257,10 +22333,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <v>65</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>100174</v>
@@ -22283,10 +22359,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
         <v>70</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>105920</v>
@@ -22309,10 +22385,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
         <v>75</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>111790</v>
@@ -22335,10 +22411,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
         <v>80</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>117782</v>
@@ -22361,10 +22437,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
         <v>85</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>123898</v>
@@ -22387,10 +22463,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
         <v>90</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>130138</v>
@@ -22413,10 +22489,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
         <v>95</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>136500</v>
@@ -22439,10 +22515,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
         <v>100</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>142986</v>
@@ -22465,10 +22541,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <v>105</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>149594</v>
@@ -22491,10 +22567,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
         <v>110</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>156326</v>
@@ -22517,10 +22593,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
         <v>115</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>163182</v>
@@ -22543,10 +22619,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
         <v>120</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>170160</v>
@@ -22569,10 +22645,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
         <v>125</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>177262</v>
@@ -22595,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
         <v>130</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>184486</v>
@@ -22621,10 +22697,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
         <v>135</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>191834</v>
@@ -22647,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
         <v>140</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>199306</v>
@@ -22673,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
         <v>145</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>206900</v>
@@ -22699,10 +22775,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
         <v>150</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>214618</v>
@@ -22725,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
         <v>155</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>222458</v>
@@ -22751,10 +22827,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
         <v>160</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>230422</v>
@@ -22777,10 +22853,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
         <v>165</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>238510</v>
@@ -22803,10 +22879,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
         <v>170</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>246720</v>
@@ -22829,10 +22905,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
         <v>175</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>255054</v>
@@ -22855,10 +22931,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
         <v>180</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>263510</v>
@@ -22881,10 +22957,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
         <v>185</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>272090</v>
@@ -22907,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
         <v>190</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>280794</v>
@@ -22933,10 +23009,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
         <v>195</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>289620</v>
@@ -22959,10 +23035,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
         <v>200</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>298570</v>
@@ -22985,10 +23061,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
         <v>205</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>307642</v>
@@ -23011,10 +23087,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
         <v>210</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>316838</v>
@@ -23037,10 +23113,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
         <v>220</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>326158</v>
@@ -23063,10 +23139,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
         <v>240</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>335600</v>
@@ -23092,7 +23168,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F61"/>
+      <selection activeCell="E15" sqref="E15:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -26314,7 +26390,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H62"/>
+      <selection activeCell="C2" sqref="C2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -27925,7 +28001,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H62"/>
+      <selection activeCell="E2" sqref="E2:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -28331,10 +28407,10 @@
         <v>25240</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -28357,10 +28433,10 @@
         <v>29150</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -28383,10 +28459,10 @@
         <v>31790</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -28409,10 +28485,10 @@
         <v>34670</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -28435,10 +28511,10 @@
         <v>37890</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -28461,10 +28537,10 @@
         <v>41340</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -28487,10 +28563,10 @@
         <v>45130</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -28513,10 +28589,10 @@
         <v>49390</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -28539,10 +28615,10 @@
         <v>54100</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -28565,10 +28641,10 @@
         <v>66290</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -28591,10 +28667,10 @@
         <v>73080</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -28617,10 +28693,10 @@
         <v>80780</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -28643,10 +28719,10 @@
         <v>89410</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -28669,10 +28745,10 @@
         <v>99070</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -28695,10 +28771,10 @@
         <v>109760</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -28721,10 +28797,10 @@
         <v>121840</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -28747,10 +28823,10 @@
         <v>135290</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -28773,10 +28849,10 @@
         <v>172210</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -28799,10 +28875,10 @@
         <v>192330</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -28825,10 +28901,10 @@
         <v>214760</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -28851,10 +28927,10 @@
         <v>239940</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -28877,10 +28953,10 @@
         <v>268350</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -28903,10 +28979,10 @@
         <v>299970</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -28929,10 +29005,10 @@
         <v>335740</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D39" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -28955,10 +29031,10 @@
         <v>375760</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -28981,10 +29057,10 @@
         <v>482590</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -29007,10 +29083,10 @@
         <v>541010</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -29033,10 +29109,10 @@
         <v>606560</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -29059,10 +29135,10 @@
         <v>680050</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -29085,10 +29161,10 @@
         <v>762390</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D45" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -29111,10 +29187,10 @@
         <v>854500</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D46" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -29137,10 +29213,10 @@
         <v>957660</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -29163,10 +29239,10 @@
         <v>1072890</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D48" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -29189,10 +29265,10 @@
         <v>1365220</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D49" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -29215,10 +29291,10 @@
         <v>1530130</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D50" s="1">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -29241,10 +29317,10 @@
         <v>1714130</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D51" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -29267,10 +29343,10 @@
         <v>1919520</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D52" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -29293,10 +29369,10 @@
         <v>2149400</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D53" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -29319,10 +29395,10 @@
         <v>2405850</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D54" s="1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -29345,10 +29421,10 @@
         <v>2692200</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D55" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -29371,10 +29447,10 @@
         <v>3011900</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D56" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -29397,10 +29473,10 @@
         <v>3368400</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D57" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -29423,10 +29499,10 @@
         <v>3765150</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D58" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -29449,10 +29525,10 @@
         <v>4209050</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="D59" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -29475,10 +29551,10 @@
         <v>4702400</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -29501,10 +29577,10 @@
         <v>5252100</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D61" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -29535,7 +29611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A54" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H72"/>
     </sheetView>
   </sheetViews>
